--- a/data/ext_data/fddata.xlsx
+++ b/data/ext_data/fddata.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>序号</t>
   </si>
@@ -70,10 +70,19 @@
     <t>待确认</t>
   </si>
   <si>
+    <t>输入融资状态为废弃的融信编号</t>
+  </si>
+  <si>
+    <t>credit2024011513381173600001646</t>
+  </si>
+  <si>
+    <t>废弃</t>
+  </si>
+  <si>
     <t>输入融资状态为审核中的融信编号</t>
   </si>
   <si>
-    <t>credit2024011513381173600001646</t>
+    <t>credit2023060716403681400000449</t>
   </si>
   <si>
     <t>审核中</t>
@@ -1018,16 +1027,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="27.375" customWidth="1"/>
-    <col min="3" max="3" width="26.625" customWidth="1"/>
+    <col min="2" max="2" width="39.125" customWidth="1"/>
+    <col min="3" max="3" width="35.375" customWidth="1"/>
     <col min="4" max="4" width="25.375" customWidth="1"/>
     <col min="5" max="5" width="12.875" customWidth="1"/>
   </cols>
@@ -1134,6 +1143,23 @@
         <v>11</v>
       </c>
     </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/data/ext_data/fddata.xlsx
+++ b/data/ext_data/fddata.xlsx
@@ -82,7 +82,7 @@
     <t>输入融资状态为审核中的融信编号</t>
   </si>
   <si>
-    <t>credit2023060716403681400000449</t>
+    <t>credit2024011511020016600001644</t>
   </si>
   <si>
     <t>审核中</t>
@@ -1030,7 +1030,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
